--- a/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship.xlsx
+++ b/WorshipCreator.TestData/Source/Books/HillsongWorship/HillsongWorship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\HillsongWorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41659274-62F6-4D45-BCF7-FFB1D33197E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1519D760-F879-4859-AA9C-E18223F33C06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{EEB768F0-7332-49A7-8FEF-956E745C1135}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="3" r:id="rId1"/>
@@ -4190,8 +4190,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="L12">
-            <v>6578772</v>
+          <cell r="L12" t="str">
+            <v>N/A</v>
           </cell>
         </row>
         <row r="13">
@@ -4291,7 +4291,7 @@
         </row>
         <row r="32">
           <cell r="L32">
-            <v>7029507</v>
+            <v>4674207</v>
           </cell>
         </row>
         <row r="33">
@@ -4331,7 +4331,7 @@
         </row>
         <row r="40">
           <cell r="L40">
-            <v>7029513</v>
+            <v>25376</v>
           </cell>
         </row>
         <row r="41">
@@ -5310,8 +5310,8 @@
           </cell>
         </row>
         <row r="236">
-          <cell r="L236" t="str">
-            <v>N/A</v>
+          <cell r="L236">
+            <v>7121043</v>
           </cell>
         </row>
         <row r="237">
@@ -5346,7 +5346,7 @@
         </row>
         <row r="243">
           <cell r="L243">
-            <v>7125088</v>
+            <v>27707</v>
           </cell>
         </row>
         <row r="244">
@@ -5380,8 +5380,8 @@
           </cell>
         </row>
         <row r="250">
-          <cell r="L250" t="str">
-            <v>N/A</v>
+          <cell r="L250">
+            <v>7026028</v>
           </cell>
         </row>
         <row r="251">
@@ -5439,6 +5439,16 @@
             <v>31982</v>
           </cell>
         </row>
+        <row r="262">
+          <cell r="L262" t="str">
+            <v>N/A</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="L263">
+            <v>7009580</v>
+          </cell>
+        </row>
         <row r="264">
           <cell r="L264">
             <v>31999</v>
@@ -5446,7 +5456,7 @@
         </row>
         <row r="265">
           <cell r="L265">
-            <v>7036006</v>
+            <v>24016</v>
           </cell>
         </row>
         <row r="266">
@@ -5459,6 +5469,16 @@
             <v>27879</v>
           </cell>
         </row>
+        <row r="268">
+          <cell r="L268">
+            <v>1128784</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="L269">
+            <v>7121311</v>
+          </cell>
+        </row>
         <row r="270">
           <cell r="L270">
             <v>30983</v>
@@ -5469,6 +5489,11 @@
             <v>38583</v>
           </cell>
         </row>
+        <row r="272">
+          <cell r="L272">
+            <v>5492031</v>
+          </cell>
+        </row>
         <row r="273">
           <cell r="L273">
             <v>31078</v>
@@ -6251,186 +6276,181 @@
         </row>
         <row r="429">
           <cell r="L429">
-            <v>4674207</v>
+            <v>1083764</v>
           </cell>
         </row>
         <row r="430">
           <cell r="L430">
-            <v>1083764</v>
+            <v>7108951</v>
           </cell>
         </row>
         <row r="431">
           <cell r="L431">
-            <v>7108951</v>
+            <v>7067249</v>
           </cell>
         </row>
         <row r="432">
           <cell r="L432">
-            <v>7067249</v>
+            <v>5997804</v>
           </cell>
         </row>
         <row r="433">
           <cell r="L433">
-            <v>5997804</v>
+            <v>1581778</v>
           </cell>
         </row>
         <row r="434">
           <cell r="L434">
-            <v>1581778</v>
+            <v>7023299</v>
           </cell>
         </row>
         <row r="435">
           <cell r="L435">
-            <v>7023299</v>
+            <v>2490706</v>
           </cell>
         </row>
         <row r="436">
           <cell r="L436">
-            <v>2490706</v>
+            <v>4572938</v>
           </cell>
         </row>
         <row r="437">
           <cell r="L437">
-            <v>4572938</v>
+            <v>4108704</v>
           </cell>
         </row>
         <row r="438">
           <cell r="L438">
-            <v>4108704</v>
+            <v>5075025</v>
           </cell>
         </row>
         <row r="439">
           <cell r="L439">
-            <v>5075025</v>
+            <v>7123436</v>
           </cell>
         </row>
         <row r="440">
           <cell r="L440">
-            <v>7123436</v>
+            <v>5783630</v>
           </cell>
         </row>
         <row r="441">
           <cell r="L441">
-            <v>5783630</v>
+            <v>7011438</v>
           </cell>
         </row>
         <row r="442">
           <cell r="L442">
-            <v>7011438</v>
+            <v>4972837</v>
           </cell>
         </row>
         <row r="443">
           <cell r="L443">
-            <v>4972837</v>
+            <v>1585970</v>
           </cell>
         </row>
         <row r="444">
           <cell r="L444">
-            <v>1585970</v>
+            <v>7119315</v>
           </cell>
         </row>
         <row r="445">
           <cell r="L445">
-            <v>7119315</v>
+            <v>426298</v>
           </cell>
         </row>
         <row r="446">
           <cell r="L446">
-            <v>426298</v>
+            <v>4108797</v>
           </cell>
         </row>
         <row r="447">
           <cell r="L447">
-            <v>4108797</v>
+            <v>7129060</v>
           </cell>
         </row>
         <row r="448">
           <cell r="L448">
-            <v>7129060</v>
+            <v>30426</v>
           </cell>
         </row>
         <row r="449">
           <cell r="L449">
-            <v>30426</v>
+            <v>4615235</v>
           </cell>
         </row>
         <row r="450">
           <cell r="L450">
-            <v>4615235</v>
+            <v>6058450</v>
           </cell>
         </row>
         <row r="451">
           <cell r="L451">
-            <v>6058450</v>
+            <v>7098758</v>
           </cell>
         </row>
         <row r="452">
           <cell r="L452">
-            <v>7098758</v>
+            <v>27051</v>
           </cell>
         </row>
         <row r="453">
           <cell r="L453">
-            <v>27051</v>
+            <v>78897</v>
           </cell>
         </row>
         <row r="454">
           <cell r="L454">
-            <v>78897</v>
+            <v>3994672</v>
           </cell>
         </row>
         <row r="455">
           <cell r="L455">
-            <v>3994672</v>
+            <v>7123068</v>
           </cell>
         </row>
         <row r="456">
           <cell r="L456">
-            <v>7123068</v>
+            <v>5060834</v>
           </cell>
         </row>
         <row r="457">
           <cell r="L457">
-            <v>5060834</v>
+            <v>5200924</v>
           </cell>
         </row>
         <row r="458">
           <cell r="L458">
-            <v>5200924</v>
+            <v>7011436</v>
           </cell>
         </row>
         <row r="459">
           <cell r="L459">
-            <v>7011436</v>
+            <v>5925663</v>
           </cell>
         </row>
         <row r="460">
           <cell r="L460">
-            <v>5925663</v>
+            <v>7130961</v>
           </cell>
         </row>
         <row r="461">
           <cell r="L461">
-            <v>7130961</v>
+            <v>7111932</v>
           </cell>
         </row>
         <row r="462">
           <cell r="L462">
-            <v>7111932</v>
+            <v>3217555</v>
           </cell>
         </row>
         <row r="463">
           <cell r="L463">
-            <v>3217555</v>
+            <v>5376377</v>
           </cell>
         </row>
         <row r="464">
           <cell r="L464">
-            <v>5376377</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="L465">
             <v>3383788</v>
           </cell>
         </row>
